--- a/data/office_ops.xlsx
+++ b/data/office_ops.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Requisitions" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Landings" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Categories" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vessels" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,27 +451,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$ObA7ZZu1pCV07Hho$ea9b677bf2131435441d538391723e4b3896c3a54470c33fe6ee1ea9a7836840ce22ec45cebaedce9ba25e83dbd32f3fea139cbc7f1913464455015be6d1a11b</t>
+          <t>scrypt:32768:8:1$gvT7jvcAopzF4dpg$3840b05fde6c3060242de559b869dca1aeebf2b228cc9524caf70e8b78595b1cc6d67db69e34b3ab89f18d6226129fa33894f66919fce3caa5bfcff67cbf7b6f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lucien</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>scrypt:32768:8:1$MSiZis4TK6Rib3F4$812725132004b6d79fdd8a32bf725f485feeecad568ec4b8ac1f8ca584fca085ea7910e4d760662f05296c06202e6e0fd286ebdd82ae6ec4470f59c0f3d5c6c5</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
@@ -538,7 +522,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Deserv</t>
+          <t>Lucien</t>
         </is>
       </c>
     </row>
@@ -720,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,18 +729,44 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spare</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S</t>
+          <t>Haykal</t>
         </is>
       </c>
     </row>

--- a/data/office_ops.xlsx
+++ b/data/office_ops.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Directory" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Requisitions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Landings" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Categories" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vessels" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requisitions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Landings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categories" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vessels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Directory" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$gvT7jvcAopzF4dpg$3840b05fde6c3060242de559b869dca1aeebf2b228cc9524caf70e8b78595b1cc6d67db69e34b3ab89f18d6226129fa33894f66919fce3caa5bfcff67cbf7b6f</t>
+          <t>240be518fabd2724ddb6f04eeb1da5967448d7e831c08c8fa822809f74c720a9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,46 +485,6 @@
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Lucien</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -537,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,66 +511,6 @@
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>date_ordered</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>total_amount</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>original_amount</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -623,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,61 +537,6 @@
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>workshop</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>landed_date</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>amount_original</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -704,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,16 +563,6 @@
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>abbr</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -740,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,21 +589,6 @@
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Haykal</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/office_ops.xlsx
+++ b/data/office_ops.xlsx
@@ -9,12 +9,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Directory" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requisitions" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Landings" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categories" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vessels" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Backups" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Change_Log" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vessels" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categories" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requisitions" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Landings" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,16 +22,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,21 +47,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -441,17 +427,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>password_hash</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
@@ -465,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>scrypt:32768:8:1$XmgqqQ0BQUK4VPr8$bc9475d537dcdd907c5bdd781852cd1902bf42662134c702ef0d27b9d5852108c2a77f05ed45ca05b42bc1b2c497cce0403c9f12373d1cd32ad0ebd79c6aaadf</t>
+          <t>240be518fabd2724ddb6f04eeb1da5967448d7e831c08c8fa822809f74c720a9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,32 +480,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
@@ -536,7 +522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,84 +531,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>date_ordered</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>total_amount</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>usd_amount</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>remarks</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
@@ -632,102 +548,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>workshop</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>expected_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>landed_date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>usd_amount</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>remarks</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -742,17 +562,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>abbr</t>
         </is>
@@ -763,13 +583,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,14 +598,69 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>vessel</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>date_ordered</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>total_usd</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>original_amount</t>
         </is>
       </c>
     </row>
@@ -794,13 +669,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,75 +684,64 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>note</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>entity_id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>details</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>vessel</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>workshop</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>amount_usd</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>landed_date</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>original_amount</t>
         </is>
       </c>
     </row>

--- a/data/office_ops.xlsx
+++ b/data/office_ops.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Users" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Directory" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vessels" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categories" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requisitions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Landings" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="requisitions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="landings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="directory" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="categories" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vessels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="users" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="change_log" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,13 +23,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,12 +51,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -418,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,36 +440,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>password_hash</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>240be518fabd2724ddb6f04eeb1da5967448d7e831c08c8fa822809f74c720a9</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>admin</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>vessel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date_ordered</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>original_amount</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>amount_usd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>po_number</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>urgency</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
         </is>
       </c>
     </row>
@@ -471,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,34 +561,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>address</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>vessel</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>workshop</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>landed_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>amount_original</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fx_rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>amount_usd</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>delivered</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
         </is>
       </c>
     </row>
@@ -522,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,14 +667,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
@@ -548,6 +714,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>abbr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -562,19 +769,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>abbr</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
@@ -583,13 +790,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,69 +805,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>date_ordered</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>total_usd</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>original_amount</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>password_hash</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-11-23T16:40:50.350005</t>
         </is>
       </c>
     </row>
@@ -669,13 +849,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,64 +864,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>vessel</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>workshop</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>amount_usd</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>expected</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>landed_date</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>original_amount</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>details</t>
         </is>
       </c>
     </row>
